--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed1/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-19.818</v>
+        <v>-20.057</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.056000000000001</v>
+        <v>-7.769999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.20200000000001</v>
+        <v>-20.064</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.868</v>
+        <v>-7.072</v>
       </c>
     </row>
     <row r="13">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.134</v>
+        <v>-22.119</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.440000000000001</v>
+        <v>-8.496</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.311999999999999</v>
+        <v>-8.125</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.716000000000001</v>
+        <v>-7.683999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.814</v>
+        <v>-21.933</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.325</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -872,12 +872,12 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.362</v>
+        <v>-7.850999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.922</v>
+        <v>-21.805</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.918</v>
+        <v>-19.841</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.778</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.187999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.212000000000001</v>
+        <v>-7.569</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.752000000000001</v>
+        <v>-7.644</v>
       </c>
     </row>
     <row r="49">
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.006</v>
+        <v>-21.957</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.356</v>
+        <v>-22.288</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.868</v>
+        <v>-7.179</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.722</v>
+        <v>-7.255</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.538</v>
+        <v>-21.53</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.07</v>
+        <v>-7.773000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.94</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.135</v>
       </c>
     </row>
     <row r="90">
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.596000000000001</v>
+        <v>-7.731</v>
       </c>
     </row>
     <row r="95">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.218</v>
+        <v>-22.387</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
